--- a/Edo-common-main/Assets/Database/0_Common/Pattern/list_pattern.xlsx
+++ b/Edo-common-main/Assets/Database/0_Common/Pattern/list_pattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Edo-common\Assets\Database\0_Common\Pattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\0_Common\Pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43712200-4CB8-4CBF-8893-1BD6990D2D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566EE1AB-A271-49CA-8650-5B7B154EE5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -836,21 +836,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9" style="1"/>
     <col min="15" max="15" width="84" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
@@ -894,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="75">
+    <row r="2" spans="1:15" ht="72">
       <c r="A2" s="1">
         <f>ROW()-2</f>
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="75">
+    <row r="3" spans="1:15" ht="72">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A15" si="0">ROW()-2</f>
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -961,7 +961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="75">
+    <row r="4" spans="1:15" ht="54">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -976,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="56.25">
+    <row r="5" spans="1:15" ht="54">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1009,7 +1009,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="56.25">
+    <row r="6" spans="1:15" ht="54">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="93.75">
+    <row r="8" spans="1:15" ht="72">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="93.75">
+    <row r="9" spans="1:15" ht="90">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="75">
+    <row r="14" spans="1:15" ht="72">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="75">
+    <row r="15" spans="1:15" ht="72">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="75">
+    <row r="16" spans="1:15" ht="72">
       <c r="A16" s="1">
         <f>ROW()-2</f>
         <v>14</v>
